--- a/data/georgia_census/adjara/xelvachauri/population_total.xlsx
+++ b/data/georgia_census/adjara/xelvachauri/population_total.xlsx
@@ -1331,13 +1331,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A96D9A8B-83A5-4D12-8390-CBCCB88442CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AAF858B-BC33-445C-872A-084389D7E7EC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87F81B30-375D-4EBA-AE3D-27C5BEC19BC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB609A3-69A5-4FA3-A8C1-42E8C59D42CA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E1FB3F-2869-4B34-AFE5-CCDC0B032452}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6769666B-B25F-4801-BC38-5CC40587A717}"/>
 </file>